--- a/biology/Botanique/Nitella_hyalina/Nitella_hyalina.xlsx
+++ b/biology/Botanique/Nitella_hyalina/Nitella_hyalina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nitella hyalina est une espèce d’algues vertes de la famille des Characeae, pouvant mesurer entre 5 et 25 centimètres de haut[2]. Elle est constituée de pseudo-racines permettant l'ancrage, d'un thalle ressemblant à une tige et à des feuilles comparables à des épines[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nitella hyalina est une espèce d’algues vertes de la famille des Characeae, pouvant mesurer entre 5 et 25 centimètres de haut. Elle est constituée de pseudo-racines permettant l'ancrage, d'un thalle ressemblant à une tige et à des feuilles comparables à des épines.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nitella hyalina possède plusieurs synonymes selon AlgaeBase                                           (4 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nitella hyalina possède plusieurs synonymes selon AlgaeBase                                           (4 mars 2021) :
 synonyme homotypique :
 Chara hyalina DC. 1815 (basionyme)
 synonymes hétérotypiques :
@@ -555,9 +569,11 @@
           <t>Risques de confusions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nitella hyalina peut être confondue avec Nitella confervacea ou Nitella tenuissima. Cependant, elle est reconnaissable grâce à la constitution de ses verticilles, composés de deux types de rameaux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nitella hyalina peut être confondue avec Nitella confervacea ou Nitella tenuissima. Cependant, elle est reconnaissable grâce à la constitution de ses verticilles, composés de deux types de rameaux.
 </t>
         </is>
       </c>
@@ -586,9 +602,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'algue prospère dans des eaux stagnantes peu profondes (de moins d'un mètre) oligo-mésotrophes, dont le pH est neutre voire alcalin. La plante aquatique pousse sur des fonds sablonneux au bord des lacs et étangs exposés au soleil, voire exondés en été[2]. On la retrouve également dans des tourbières acides[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'algue prospère dans des eaux stagnantes peu profondes (de moins d'un mètre) oligo-mésotrophes, dont le pH est neutre voire alcalin. La plante aquatique pousse sur des fonds sablonneux au bord des lacs et étangs exposés au soleil, voire exondés en été. On la retrouve également dans des tourbières acides.
 </t>
         </is>
       </c>
@@ -617,9 +635,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est monoïque. Les gamétocystes répartis en spermatocystes et oogones se situent à la base des rameaux. La dessiccation des gamétocystes est limitée par la présence d'un mucilage au niveau des verticilles supérieurs[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est monoïque. Les gamétocystes répartis en spermatocystes et oogones se situent à la base des rameaux. La dessiccation des gamétocystes est limitée par la présence d'un mucilage au niveau des verticilles supérieurs.
 </t>
         </is>
       </c>
@@ -648,9 +668,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est cosmopolite[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est cosmopolite.
 </t>
         </is>
       </c>
@@ -679,9 +701,11 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (4 mars 2021)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (4 mars 2021) :
 variété Nitella hyalina var. aberrans F.S.Han &amp; W.Q.Chen, 1982
 variété Nitella hyalina var. brachyactis A.Braun, 1868
 variété Nitella hyalina var. engelmanni A.Braun, 1882
